--- a/logs/2024/My Year of Rest and Relaxation - Ottessa Moshfegh.xlsx
+++ b/logs/2024/My Year of Rest and Relaxation - Ottessa Moshfegh.xlsx
@@ -430,7 +430,7 @@
         <v>45497</v>
       </c>
       <c r="B1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45500</v>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45501</v>
       </c>
       <c r="B3" t="n">
-        <v>224</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
